--- a/list.xlsx
+++ b/list.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CF21-exercises\FE21-CR11-Natalia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{79AD49B8-6FC1-456A-8ECB-2457BAE22F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E78619B-A3CC-461F-A69C-4564C5581446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>breed</t>
   </si>
@@ -160,13 +161,115 @@
   </si>
   <si>
     <t>Kärntner Ring 1, 1010 Vienna, Austria</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>Richie</t>
+  </si>
+  <si>
+    <t>richie@gmail.com</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Susanne</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Brick</t>
+  </si>
+  <si>
+    <t>susanne@gmail.com</t>
+  </si>
+  <si>
+    <t>Jenny</t>
+  </si>
+  <si>
+    <t>Ofoldstones</t>
+  </si>
+  <si>
+    <t>jenny@gmail.com</t>
+  </si>
+  <si>
+    <t>Tobias</t>
+  </si>
+  <si>
+    <t>Tierfreund</t>
+  </si>
+  <si>
+    <t>tobias@gmail.com</t>
+  </si>
+  <si>
+    <t>Donna J.</t>
+  </si>
+  <si>
+    <t>Koenig</t>
+  </si>
+  <si>
+    <t>donna@gmail.com</t>
+  </si>
+  <si>
+    <t>Keenan</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>keenan@gmail.com</t>
+  </si>
+  <si>
+    <t>Enid</t>
+  </si>
+  <si>
+    <t>Swaniawski</t>
+  </si>
+  <si>
+    <t>enid@gmail.com</t>
+  </si>
+  <si>
+    <t>Schanelle</t>
+  </si>
+  <si>
+    <t>Zieme</t>
+  </si>
+  <si>
+    <t>schanelle@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +281,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,15 +311,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -520,11 +634,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -769,4 +883,206 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B782F17C-92A0-40DC-8C88-5A6BDCF97E92}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2">
+        <v>40544</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2">
+        <v>36924</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2">
+        <v>37289</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="2">
+        <v>35430</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2">
+        <v>21002</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2">
+        <v>28367</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2">
+        <v>40536</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2">
+        <v>32946</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="2">
+        <v>39614</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{03A0FB90-A386-4893-82AC-6B8D02F9B44C}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{2B299A19-23CB-4CB1-B8EA-EF590FD6DE4B}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{4F2FB661-B3B1-46BB-A10F-30A3B39D1FC1}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{940EEF1C-084D-4797-A5F5-3AA22B519F77}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{B0240D6C-B898-4103-86B4-4684F9D5840B}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{BE0616FE-BFC7-4EAB-8EBF-A1B895FE708F}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{D119EC74-FE80-4098-B5A4-D82CB44947B2}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{B392305D-2E05-4886-9755-1CA7A7848AB6}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{B478A32D-107B-4A19-BCAC-5F58F4F44361}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>